--- a/biology/Médecine/Direction_générale_de_la_santé_publique/Direction_générale_de_la_santé_publique.xlsx
+++ b/biology/Médecine/Direction_générale_de_la_santé_publique/Direction_générale_de_la_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_sant%C3%A9_publique</t>
+          <t>Direction_générale_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction générale de la santé publique (DGSP) est l'une des directions générales du ministère de la Santé et des Services sociaux du Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_sant%C3%A9_publique</t>
+          <t>Direction_générale_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_sant%C3%A9_publique</t>
+          <t>Direction_générale_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,10 +553,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direction national
-Un « directeur national de la santé publique », avec rang de sous-ministre adjoint au sein du ministère de la Santé et des Services sociaux, est à la tête de la direction générale.
-Directions régionales
-Le territoire québécois est divisé en 18 directions régionales, basées sensiblement sur les régions administratives du Québec à quelques exceptions près.
+          <t>Direction national</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un « directeur national de la santé publique », avec rang de sous-ministre adjoint au sein du ministère de la Santé et des Services sociaux, est à la tête de la direction générale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Direction_générale_de_la_santé_publique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Direction_g%C3%A9n%C3%A9rale_de_la_sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Directions régionales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire québécois est divisé en 18 directions régionales, basées sensiblement sur les régions administratives du Québec à quelques exceptions près.
 Bas-Saint-Laurent
 Saguenay–Lac-Saint-Jean
 Capitale-Nationale
